--- a/Iphone 12.xlsx
+++ b/Iphone 12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpthe\Ciencia de dados\CD21-2\P1 git\Cdados1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436ED038-CC3C-4995-B76F-4BFA4096CBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67010A6-7F68-49C2-B8FB-91D43AB76421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21345" yWindow="4830" windowWidth="5430" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1219">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1759,20 +1759,6 @@
     <t>iphone 12 é para os fracos...o foda mesmo é o samsunga 12 https://t.co/xeybrgcivl</t>
   </si>
   <si>
-    <t>@rei_sadboy da onde vc tirou q eu tenho um iphone 12?? do cu??</t>
-  </si>
-  <si>
-    <t>era só um iphone 12 na minha mão agr</t>
-  </si>
-  <si>
-    <t>[4/9 13:54] : jojo deu um iphone 12 pra amiga dela quero uma amiga dessa
-[4/9 13:54] nanny 👑: enquanto vocês só me dão trabalho
-não aguento mais essas amizades</t>
-  </si>
-  <si>
-    <t>#anonymous já pode vazar o cartão do bolsonaro, meu iphone 12 pro max já tá no carrinho</t>
-  </si>
-  <si>
     <t>esse iphone 12 é cheio de frescura mane, pqp kkkk. até pra baixar aplicativos tem que por a senha</t>
   </si>
   <si>
@@ -1783,18 +1769,6 @@
   </si>
   <si>
     <t>quase que eu comprei um carregador de iphone 12 pro 8 kkkkkk cuidado com a burra</t>
-  </si>
-  <si>
-    <t>@safeluddington vem aí theus de iphone 12</t>
-  </si>
-  <si>
-    <t>falo mal de iphone mas era só um iphone 12 lilas ein....</t>
-  </si>
-  <si>
-    <t>@ga_mattoss kkkkkkkk puta vo compra um iphone 12 daí tu vai ve espere</t>
-  </si>
-  <si>
-    <t>ja tou querendo meter um iphone 12 pro 🥴</t>
   </si>
   <si>
     <t>cara n tô conseguindo baixar o tt no iphone, fala que precisa de uma atualização 13.0 ou mais e o meu tá com 12.5 falando q já tá atualizado 😭😭</t>
@@ -1835,24 +1809,6 @@
   </si>
   <si>
     <t>não é nem meio dia e meu cll tá em 12% e olha q n eh nem iphone</t>
-  </si>
-  <si>
-    <t>tipo eu só queria um carro, uma casa, um mac, um iphone 12 e um salario de 20k q o resto eu corria atrás com bastante esforço e dedicação.😄</t>
-  </si>
-  <si>
-    <t>ofereci pro meu pai um iphone xs max e ele vai comprar o 12 kkkkkk</t>
-  </si>
-  <si>
-    <t>já que meu pai fala que sou mimada vou pedir um iphone 12 de aniversário poxa 20 aninhos só se faz uma vez! 🤣🤣🤣🤣🤣</t>
-  </si>
-  <si>
-    <t>obrigada @nubank , pagar com meu iphone 12 me faz sentir vencendo na vida! 😂 só falta agora aumentarem meu limite pra eu gritar: “eu sou ricaaaaa!!!” #nubank #applepay https://t.co/23gf1svl0s</t>
-  </si>
-  <si>
-    <t>@lucaxjpg troca cmg mano, iphone 12 pro max com 3 meses de uso</t>
-  </si>
-  <si>
-    <t>que mundo cruel é esse que eu acho e devolvo um iphone 12 e não ganho nem uma mamada 😰</t>
   </si>
   <si>
     <t>prêmios altíssimos em dinheiro, iphone 12 pro, playstation 5, xiaomi note 10 pro e camisas de time!
@@ -1865,28 +1821,6 @@
 alô, @tim_cook @apple #appleevent, brasil vergonhoso !!! 😈🤥💸 https://t.co/3dwhv5jyg6</t>
   </si>
   <si>
-    <t>eu dando o golpe: vou vender um iphone 12 ai eu deveria mandar uma batata no lugar e acabo mandando um 12pro max 🤡🤡</t>
-  </si>
-  <si>
-    <t>@henriquekm6 @jao_rici @awayskrt1 @dreeamfn usa iphone 12 mas é feio e virgem, de que adianta?</t>
-  </si>
-  <si>
-    <t>oi gente! fui assaltada e levei dois socos na cara e agora tô de iphone 12 bjos 😊</t>
-  </si>
-  <si>
-    <t>@diogoteske 1 kwid q atolou e entrou água dentro
-2 outros atolados até o outro dia
-1 perdeu iphone 12
-1 queimou 4 sub do som
-esses são os q eu seikkkkkkk</t>
-  </si>
-  <si>
-    <t>esperando bonitinha o anonymous vazar o cartão do bozo pra eu comprar meu iphone 12</t>
-  </si>
-  <si>
-    <t>@caradoastra lembra qdo tu começou a vender iphone e falou pra mim que não via sentido ter um 12 🗣️🗣️🗣️🗣️</t>
-  </si>
-  <si>
     <t>tem que ser rico pra comprar um iphone 12? 😪</t>
   </si>
   <si>
@@ -1903,33 +1837,6 @@
   </si>
   <si>
     <t>jesus n posso ficar com dinheiro assim já tô pensando em comprar o iphone 12 pro</t>
-  </si>
-  <si>
-    <t>jss ele cm iphone devia te o q uns 11/12 ano aki https://t.co/ttirtiqov8</t>
-  </si>
-  <si>
-    <t>a mamãe comprou o iphone 12. ainda demorou pra ela comprar</t>
-  </si>
-  <si>
-    <t>quem um iphone 12 pro max</t>
-  </si>
-  <si>
-    <t>@senadofederal ué esconderam a hilux, avião e iphone 12 comprados com suor do trabalho pq???? índios sanctos os nossos neah</t>
-  </si>
-  <si>
-    <t>quer play 5, iphone 12 o pai banca p vc</t>
-  </si>
-  <si>
-    <t>tem uma menina de uns 4 anos na minha frente c um iphone 12 dela</t>
-  </si>
-  <si>
-    <t>queria ganhar um iphone 12 64gb de presente</t>
-  </si>
-  <si>
-    <t>minha mãe vendo chegar um iphone 12 e um monte de roupa nova do nada: 🤨🤨🧐🧐🧐</t>
-  </si>
-  <si>
-    <t>ester cismou q quer um iphone 12 de presente,n aguento c isso mais n 🤣🤣🤣🤣</t>
   </si>
   <si>
     <t>morta que meu chefe novo,  3 dias de emprego, pediu meu celular pra testar  um app no ios, old que ele tem um iphone 12, e só subia notificações de grupo de shipper,
@@ -1969,28 +1876,6 @@
   </si>
   <si>
     <t>vou comprar um iphone, me falem um bom sem ser o 12 e que seja grande</t>
-  </si>
-  <si>
-    <t>a quem me ajudou com o celular ontem:
-obrigado gente num fiz nada do que vcs falaram e comprei um iphone 12 pois é sobre ocupar espaços</t>
-  </si>
-  <si>
-    <t>@dancinskin só vc que tem iphone 12, boy</t>
-  </si>
-  <si>
-    <t>fui na loja comprar uma capinha pro meu celular quase sai com um iphone 12 de lá</t>
-  </si>
-  <si>
-    <t>[06/09/2021 11:01:52] matheus silva: bora mais tarde
- [06/09/2021 11:01:56] matheus silva: q se vacilar
- [06/09/2021 11:01:59] matheus silva: eu me endivido logo de vez
- [06/09/2021 11:02:04] matheus silva: saio de lá com um iphone 12</t>
-  </si>
-  <si>
-    <t>iphone é um bglh mandadão pprt</t>
-  </si>
-  <si>
-    <t>@uchihafvs nossa mommy te dou ate meu cu  si vc me der o iphone 12 🥺🥺</t>
   </si>
   <si>
     <t>@rayssaa_sm ia me atraca nas tchenga veia sem dente e volta c uma biz e um iphone 12</t>
@@ -2377,11 +2262,6 @@
     <t>vc percebe a diferença no poder de compra quando vc tá numa mesa com 11 pessoas e 9 tão com um iphone 11/12 na mão e com um apple watch no pulso 🥵</t>
   </si>
   <si>
-    <t>veja o unboxing e análise completa desse lançamento da oukitel modelo c21 pro! a cara do iphone 12 pro. 😅🎬📽
-https://t.co/vaakh66j1t
-#oukitel #oukitelc21pro #smartphone #lançamento https://t.co/ddzg6bft4u</t>
-  </si>
-  <si>
     <t>o guriazinho no bus: 
 🧒🏼: mãe quando teu celular estragar tu compra um iphone 12? 
 👱🏼‍♀️: meu filho é muito caro!!!!
@@ -2396,9 +2276,6 @@
   </si>
   <si>
     <t>@paulorib049 calma paulo em cerca de 1 mes vc tera o iphone 12 pro max pago a vista</t>
-  </si>
-  <si>
-    <t>será que se eu vender foto do pé consigo dinheiro pra um iphone 12 pro?</t>
   </si>
   <si>
     <t>#promoção #oferta  [app] iphone 12 128gb ios 5g wi-fi câmera 12mp - apple - r$ 5.264,10  #apple https://t.co/1q1crjpqvp</t>
@@ -2526,25 +2403,6 @@
     <t>travaro meu iphone 12 vo processar eles</t>
   </si>
   <si>
-    <t>pablo sarabia: "se eu podia ter um iphone 12 pro max? 
-podia, mas não era a mesma coisa."
-humildade 💪
-#sportingcp https://t.co/pq8t8rcgd2</t>
-  </si>
-  <si>
-    <t>@jmattos09 deu molin, perdeu o iphone 12 pro max</t>
-  </si>
-  <si>
-    <t>meu deus tava andando na rua levei um tapa e perdi meu iphone 12 pro apple grafite, 128gb desbloqueado - mgmk3bz/a se verem por ai entrem em contato cmg :((((</t>
-  </si>
-  <si>
-    <t>@gabilcdp um iphone 12 pro max junto com o carregador e um fone via bluetooth original,se não for pedir muito tbm um milk-shake</t>
-  </si>
-  <si>
-    <t>i #voteoliviarodrigovma for #vma  best new artist
-cruzeiro quarentena maconha maquiagem recife agiota macaco joão pessoa iphone 12 fav</t>
-  </si>
-  <si>
     <t>então no meio dessa conversa onde ele basicamente diz que tá todo endividado, duas coisas me chamaram a atenção.
 1 - ele tá com um iphone 12 novo
 2 - ele comenta que tá treinando corrida pra fazer uma prova que será na europa.
@@ -2657,27 +2515,12 @@
     <t>o galaxy z flip 3 é igualzinho o iphone 12</t>
   </si>
   <si>
-    <t>@wtvuw é os vírus do fb "parabéns, ganhou um iphone 12 pro max!!! carregue no link a baixo é veja como o receber"</t>
-  </si>
-  <si>
     <t>gente seis mil reais o iphone 12 n da pra ser feliz nessa país</t>
   </si>
   <si>
-    <t>poxa nenhum sugar pra me dar um iphone 12 pro max 256gb 😔😔😔</t>
-  </si>
-  <si>
-    <t>também esta na lista: um carro, iphone 12 ou um boleto daqui de casa p vc pagar</t>
-  </si>
-  <si>
     <t>a bateria do iphone 11 é muito melhor que a do 12</t>
   </si>
   <si>
-    <t>eu to tão triste que só resolve se eu ganhar aquele iphone 12</t>
-  </si>
-  <si>
-    <t>olá! você já passou no meu canal do youtube hoje? acesse agora mesmo https://t.co/xnglezcok8 september 10, 2021 at 12:29pm #google #iphone #apple #ios</t>
-  </si>
-  <si>
     <t>eu por exemplo, me arrependo de não ter mais o meu iphone x, de tê-lo substituído pelo iphone xs. foi uma decisão estúpida da minha parte. e não tenho qualquer interesse verdadeiro nos iphone 11 e 12, não vejo vantagem real e substantiva neles.</t>
   </si>
   <si>
@@ -2685,15 +2528,6 @@
   </si>
   <si>
     <t>então esse iphone 12 comprou com dinheiro de brechó 🤧😭😭?</t>
-  </si>
-  <si>
-    <t>@anapaularenault @guilhermesousa caraca, se tudo isso for verdade o iphone 13 vai ser mais caro que um carro popular. bora ficar quietinha com o 12 mesmo pq esse trem aí deve contar até se a gente der uma “puladinha de cerca” com o tanto de função q deve ter. tô de boa e ao mesmo tempo chocada. #apple❤️</t>
-  </si>
-  <si>
-    <t>vo faze vakinha p comprar um cel novo, de preferencia um iphone 12 por favor</t>
-  </si>
-  <si>
-    <t>to aceitando doações galera quem puder doar um iphone 12</t>
   </si>
   <si>
     <t>ela estava comprando um celular, mas quando peguei os detalhes me deu até uma depressão kkk
@@ -2702,22 +2536,6 @@
   </si>
   <si>
     <t>"o que? eu não quero o iphone 8 plus eu quero o 12 max e o senhor que de seu jeito" toda vez que lembro da doida falando isso me dá vontade de rir</t>
-  </si>
-  <si>
-    <t>apenas um iphone 12 roxinho seria capaz de tirar todo meu mau humor e toda a tristeza do meu corpo agora, burro foi aquele que disse que dinheiro não trás felicidade</t>
-  </si>
-  <si>
-    <t>sera que é errado eu pedir pro meu namorado me dar um iphone 12 sendo que eu nao dou quase nada pra ele pq eu nao trablho?</t>
-  </si>
-  <si>
-    <t>cadê o sugar daddy pra financiar meu iphone 12</t>
-  </si>
-  <si>
-    <t>@maxjuunior ela quer: iphone 12 
-vai ganhar: umas peia da namorada</t>
-  </si>
-  <si>
-    <t>até ela tem o iphone 12 pro max nu https://t.co/bgarhywmme</t>
   </si>
   <si>
     <t>esse pessoal que estão comparando o iphone 7 plus com o 11 pro e o 12 pro , querem atenção da apple kkkk com certeza</t>
@@ -4144,6 +3962,60 @@
   </si>
   <si>
     <t>peguei o iphone 12 na mão na loja ontem pela primeira vez. quero essa porra agora</t>
+  </si>
+  <si>
+    <t>@coe_salesx iphone 12 pro max do aliexpress que vem com câmera traseira falsa e carcaça removível</t>
+  </si>
+  <si>
+    <t>@paxlopes a gente luta tanto kkkk e sempre da uma dessas ksksksks mas fé que logo a condição de comprar 1 iphone 12 por mês vem</t>
+  </si>
+  <si>
+    <t>a única novidade para mim no iphone 13 pro é sua velocidade de 120 hz e o modo macro, isso era pra ter sido implantado no 12 pro max cara que demora da apple pra botar nos celulares</t>
+  </si>
+  <si>
+    <t>vou à apple todo contente para comprar o iphone 12 pro e fico a descobrir que ja esta descontinuado😩</t>
+  </si>
+  <si>
+    <t>paguei a última parcela do meu 📱, mês nem acabou e já estou pensando no iphone 12, sai de mim espírito de karla! xô!!! 😅😂😩</t>
+  </si>
+  <si>
+    <t>pensando em trocar meu iphone 11 por um 12 na iplace e dar esse de entrada….</t>
+  </si>
+  <si>
+    <t>@deive_amorim @lpris_ ces falando de iphone 12 eu ainda sonhando com o 8</t>
+  </si>
+  <si>
+    <t>novo iphone chega como atualiza??o do 12, com melhorias na c?mera e bateria https://t.co/umhq2kllfs https://t.co/148vwfvoa7</t>
+  </si>
+  <si>
+    <t>eu atualizei pro ios 15 e a qualidade da minha câmera caiu do iphone 12 para o 5s, vintage que fala né?</t>
+  </si>
+  <si>
+    <t>comprei um iphone 12 mini roxo, paguei por pix e já tô arrependido! aí meu dinheirinho 😓 agora a gay tá fudida sem dinheiro pra uma coca cola https://t.co/erevgbs0tj</t>
+  </si>
+  <si>
+    <t>@bestzx11 @guilhermezutin @swxggn kkkkkkkkk claro, dividiu o xbox em 12 vezes ai  kkkkkk e o iphone em 70 anos e tá se achando bom</t>
+  </si>
+  <si>
+    <t>eu já gastei uma moto só em iphone, paguei 5 mil no meu, vou trocar agora pelo 12 e já vai mais 5 mil de novo, sem falar oques eu já tive antes, o vida escrava viu 😣</t>
+  </si>
+  <si>
+    <t>o dia q eu tiver um iphone 12 aí sim ando de suporte🤣🤣🤣😅</t>
+  </si>
+  <si>
+    <t>tava olhando aqui o iphone 12 verde é tao lindinho</t>
+  </si>
+  <si>
+    <t>se o corbyn comprou o iphone 13 ele é bem burro sério, que tenha comprado o 12 🙏🏻</t>
+  </si>
+  <si>
+    <t>@dry_snts viu meu celular super tecnológico? ele &amp;gt;&amp;gt;&amp;gt;&amp;gt; iphone 12</t>
+  </si>
+  <si>
+    <t>edge 20 pro vs iphone 12 pro: quão perto da apple chega a motorola? | comparativo - https://t.co/w4jfjquf96 https://t.co/kxcvfnzpvq https://t.co/1bnxyvm36c</t>
+  </si>
+  <si>
+    <t>gente e eu que descobri que nunca vou poder ter um iphone 12 por causa que ele pode desregula ou até mesmo desativar o meu marcapasso</t>
   </si>
 </sst>
 </file>
@@ -4545,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B945"/>
+  <dimension ref="A1:B959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A919" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A952" sqref="A952"/>
+    <sheetView tabSelected="1" topLeftCell="A932" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A967" sqref="A967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8226,7 +8098,7 @@
         <v>524</v>
       </c>
       <c r="B459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -8250,7 +8122,7 @@
         <v>527</v>
       </c>
       <c r="B462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -8274,7 +8146,7 @@
         <v>530</v>
       </c>
       <c r="B465">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -8282,7 +8154,7 @@
         <v>531</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -8290,7 +8162,7 @@
         <v>532</v>
       </c>
       <c r="B467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -8298,7 +8170,7 @@
         <v>533</v>
       </c>
       <c r="B468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -8314,7 +8186,7 @@
         <v>535</v>
       </c>
       <c r="B470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -8322,7 +8194,7 @@
         <v>536</v>
       </c>
       <c r="B471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -8330,7 +8202,7 @@
         <v>537</v>
       </c>
       <c r="B472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -8338,7 +8210,7 @@
         <v>538</v>
       </c>
       <c r="B473">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -8346,7 +8218,7 @@
         <v>539</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -8362,7 +8234,7 @@
         <v>541</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -8370,7 +8242,7 @@
         <v>542</v>
       </c>
       <c r="B477">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -8394,7 +8266,7 @@
         <v>545</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -8402,7 +8274,7 @@
         <v>546</v>
       </c>
       <c r="B481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -8410,7 +8282,7 @@
         <v>547</v>
       </c>
       <c r="B482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -8418,7 +8290,7 @@
         <v>548</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -8426,7 +8298,7 @@
         <v>549</v>
       </c>
       <c r="B484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -8450,7 +8322,7 @@
         <v>552</v>
       </c>
       <c r="B487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -8458,7 +8330,7 @@
         <v>553</v>
       </c>
       <c r="B488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -8482,7 +8354,7 @@
         <v>556</v>
       </c>
       <c r="B491">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -8498,7 +8370,7 @@
         <v>558</v>
       </c>
       <c r="B493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -8506,28 +8378,28 @@
         <v>559</v>
       </c>
       <c r="B494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>560</v>
+        <v>665</v>
       </c>
       <c r="B495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>561</v>
+        <v>666</v>
       </c>
       <c r="B496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>562</v>
+        <v>667</v>
       </c>
       <c r="B497">
         <v>0</v>
@@ -8535,23 +8407,23 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>563</v>
+        <v>668</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>564</v>
+        <v>669</v>
       </c>
       <c r="B499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>565</v>
+        <v>670</v>
       </c>
       <c r="B500">
         <v>0</v>
@@ -8559,23 +8431,23 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>566</v>
+        <v>671</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>567</v>
+        <v>672</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>568</v>
+        <v>673</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -8583,15 +8455,15 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>569</v>
+        <v>674</v>
       </c>
       <c r="B504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>570</v>
+        <v>675</v>
       </c>
       <c r="B505">
         <v>0</v>
@@ -8599,7 +8471,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>571</v>
+        <v>676</v>
       </c>
       <c r="B506">
         <v>0</v>
@@ -8607,39 +8479,39 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>572</v>
+        <v>677</v>
       </c>
       <c r="B507">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>573</v>
+        <v>679</v>
       </c>
       <c r="B508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>574</v>
+        <v>680</v>
       </c>
       <c r="B509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>575</v>
+        <v>683</v>
       </c>
       <c r="B510">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>576</v>
+        <v>684</v>
       </c>
       <c r="B511">
         <v>0</v>
@@ -8647,23 +8519,23 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>577</v>
+        <v>685</v>
       </c>
       <c r="B512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>578</v>
+        <v>686</v>
       </c>
       <c r="B513">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>579</v>
+        <v>687</v>
       </c>
       <c r="B514">
         <v>0</v>
@@ -8671,39 +8543,39 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>580</v>
+        <v>688</v>
       </c>
       <c r="B515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>581</v>
+        <v>689</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>582</v>
+        <v>690</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>583</v>
+        <v>691</v>
       </c>
       <c r="B518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>584</v>
+        <v>692</v>
       </c>
       <c r="B519">
         <v>0</v>
@@ -8711,7 +8583,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>585</v>
+        <v>693</v>
       </c>
       <c r="B520">
         <v>0</v>
@@ -8719,31 +8591,31 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>586</v>
+        <v>694</v>
       </c>
       <c r="B521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>587</v>
+        <v>695</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>588</v>
+        <v>716</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>589</v>
+        <v>717</v>
       </c>
       <c r="B524">
         <v>0</v>
@@ -8751,23 +8623,23 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>590</v>
+        <v>718</v>
       </c>
       <c r="B525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>591</v>
+        <v>719</v>
       </c>
       <c r="B526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>592</v>
+        <v>720</v>
       </c>
       <c r="B527">
         <v>0</v>
@@ -8775,39 +8647,39 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>593</v>
+        <v>721</v>
       </c>
       <c r="B528">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>594</v>
+        <v>722</v>
       </c>
       <c r="B529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="B532">
         <v>0</v>
@@ -8815,15 +8687,15 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>703</v>
+        <v>726</v>
       </c>
       <c r="B533">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -8831,23 +8703,23 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="B535">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
       <c r="B536">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="B537">
         <v>0</v>
@@ -8855,7 +8727,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -8863,15 +8735,15 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="B540">
         <v>0</v>
@@ -8879,39 +8751,39 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="B541">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="B543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="B544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="B545">
         <v>2</v>
@@ -8919,7 +8791,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -8927,39 +8799,39 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="B547">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="B548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="B549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
       <c r="B550">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="B551">
         <v>0</v>
@@ -8967,47 +8839,47 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="B554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>725</v>
+        <v>676</v>
       </c>
       <c r="B555">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="B556">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="B557">
         <v>0</v>
@@ -9015,15 +8887,15 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="B558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="B559">
         <v>0</v>
@@ -9031,7 +8903,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="B560">
         <v>0</v>
@@ -9039,87 +8911,87 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="B562">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B563">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B564">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B565">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>756</v>
+        <v>696</v>
       </c>
       <c r="B566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B567">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B569">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B571">
         <v>1</v>
@@ -9127,15 +8999,15 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B573">
         <v>3</v>
@@ -9143,7 +9015,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -9151,39 +9023,39 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B576">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B579">
         <v>1</v>
@@ -9191,7 +9063,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B580">
         <v>3</v>
@@ -9199,23 +9071,23 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -9223,119 +9095,119 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="B584">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B585">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>775</v>
+        <v>677</v>
       </c>
       <c r="B586">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>777</v>
+        <v>665</v>
       </c>
       <c r="B588">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B589">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>780</v>
+        <v>690</v>
       </c>
       <c r="B591">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="B592">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>782</v>
+        <v>695</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B598">
         <v>3</v>
@@ -9343,23 +9215,23 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="B599">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>711</v>
+        <v>678</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B601">
         <v>1</v>
@@ -9367,63 +9239,63 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B604">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B607">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B608">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B609">
         <v>4</v>
@@ -9431,55 +9303,55 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>705</v>
+        <v>794</v>
       </c>
       <c r="B612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B613">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B616">
         <v>3</v>
@@ -9487,7 +9359,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -9495,47 +9367,47 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B618">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B620">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>807</v>
+        <v>689</v>
       </c>
       <c r="B623">
         <v>3</v>
@@ -9543,7 +9415,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -9551,47 +9423,47 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B629">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -9599,31 +9471,31 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>816</v>
+        <v>697</v>
       </c>
       <c r="B632">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B634">
         <v>1</v>
@@ -9631,15 +9503,15 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B636">
         <v>2</v>
@@ -9647,23 +9519,23 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B637">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B639">
         <v>3</v>
@@ -9671,7 +9543,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -9679,39 +9551,39 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>825</v>
+        <v>995</v>
       </c>
       <c r="B641">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>826</v>
+        <v>996</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>827</v>
+        <v>997</v>
       </c>
       <c r="B643">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>828</v>
+        <v>998</v>
       </c>
       <c r="B644">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>712</v>
+        <v>999</v>
       </c>
       <c r="B645">
         <v>2</v>
@@ -9719,47 +9591,47 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>829</v>
+        <v>1000</v>
       </c>
       <c r="B646">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>700</v>
+        <v>1001</v>
       </c>
       <c r="B647">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>830</v>
+        <v>1002</v>
       </c>
       <c r="B648">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>831</v>
+        <v>1003</v>
       </c>
       <c r="B649">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>727</v>
+        <v>1004</v>
       </c>
       <c r="B650">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>832</v>
+        <v>1005</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -9767,31 +9639,31 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>833</v>
+        <v>1006</v>
       </c>
       <c r="B652">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>732</v>
+        <v>1007</v>
       </c>
       <c r="B653">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>834</v>
+        <v>1008</v>
       </c>
       <c r="B654">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>835</v>
+        <v>1009</v>
       </c>
       <c r="B655">
         <v>1</v>
@@ -9799,7 +9671,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>836</v>
+        <v>1010</v>
       </c>
       <c r="B656">
         <v>1</v>
@@ -9807,15 +9679,15 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>837</v>
+        <v>1011</v>
       </c>
       <c r="B657">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>751</v>
+        <v>1012</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -9823,23 +9695,23 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>714</v>
+        <v>1013</v>
       </c>
       <c r="B659">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>838</v>
+        <v>1014</v>
       </c>
       <c r="B660">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>839</v>
+        <v>1015</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -9847,7 +9719,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>840</v>
+        <v>1016</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -9855,15 +9727,15 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>841</v>
+        <v>1017</v>
       </c>
       <c r="B663">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>842</v>
+        <v>1018</v>
       </c>
       <c r="B664">
         <v>1</v>
@@ -9871,39 +9743,39 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>843</v>
+        <v>1019</v>
       </c>
       <c r="B665">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>844</v>
+        <v>1020</v>
       </c>
       <c r="B666">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>845</v>
+        <v>1021</v>
       </c>
       <c r="B667">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>846</v>
+        <v>1022</v>
       </c>
       <c r="B668">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>847</v>
+        <v>1023</v>
       </c>
       <c r="B669">
         <v>1</v>
@@ -9911,7 +9783,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>848</v>
+        <v>1024</v>
       </c>
       <c r="B670">
         <v>1</v>
@@ -9919,47 +9791,47 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>849</v>
+        <v>1025</v>
       </c>
       <c r="B671">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>850</v>
+        <v>1026</v>
       </c>
       <c r="B672">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>851</v>
+        <v>1027</v>
       </c>
       <c r="B673">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>852</v>
+        <v>1028</v>
       </c>
       <c r="B674">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>853</v>
+        <v>1029</v>
       </c>
       <c r="B675">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>740</v>
+        <v>1030</v>
       </c>
       <c r="B676">
         <v>1</v>
@@ -9967,7 +9839,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>854</v>
+        <v>1031</v>
       </c>
       <c r="B677">
         <v>1</v>
@@ -9975,31 +9847,31 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>855</v>
+        <v>1032</v>
       </c>
       <c r="B678">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>856</v>
+        <v>1033</v>
       </c>
       <c r="B679">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>857</v>
+        <v>995</v>
       </c>
       <c r="B680">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>858</v>
+        <v>996</v>
       </c>
       <c r="B681">
         <v>2</v>
@@ -10007,15 +9879,15 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>726</v>
+        <v>997</v>
       </c>
       <c r="B682">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>859</v>
+        <v>998</v>
       </c>
       <c r="B683">
         <v>1</v>
@@ -10023,7 +9895,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>860</v>
+        <v>999</v>
       </c>
       <c r="B684">
         <v>1</v>
@@ -10031,55 +9903,55 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>861</v>
+        <v>1000</v>
       </c>
       <c r="B685">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>862</v>
+        <v>1001</v>
       </c>
       <c r="B686">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>863</v>
+        <v>1002</v>
       </c>
       <c r="B687">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>864</v>
+        <v>1003</v>
       </c>
       <c r="B688">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>865</v>
+        <v>1004</v>
       </c>
       <c r="B689">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>866</v>
+        <v>1005</v>
       </c>
       <c r="B690">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>734</v>
+        <v>1006</v>
       </c>
       <c r="B691">
         <v>1</v>
@@ -10087,55 +9959,55 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>867</v>
+        <v>1007</v>
       </c>
       <c r="B692">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>868</v>
+        <v>1008</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>869</v>
+        <v>1009</v>
       </c>
       <c r="B694">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>870</v>
+        <v>1010</v>
       </c>
       <c r="B695">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>871</v>
+        <v>1011</v>
       </c>
       <c r="B696">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>872</v>
+        <v>1012</v>
       </c>
       <c r="B697">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>873</v>
+        <v>1013</v>
       </c>
       <c r="B698">
         <v>3</v>
@@ -10143,55 +10015,55 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>874</v>
+        <v>1014</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1050</v>
+        <v>1015</v>
       </c>
       <c r="B700">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1051</v>
+        <v>1016</v>
       </c>
       <c r="B701">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1052</v>
+        <v>1017</v>
       </c>
       <c r="B702">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1053</v>
+        <v>1018</v>
       </c>
       <c r="B703">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1054</v>
+        <v>1019</v>
       </c>
       <c r="B704">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1055</v>
+        <v>1020</v>
       </c>
       <c r="B705">
         <v>1</v>
@@ -10199,39 +10071,39 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1056</v>
+        <v>1021</v>
       </c>
       <c r="B706">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1057</v>
+        <v>1022</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1058</v>
+        <v>1023</v>
       </c>
       <c r="B708">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1059</v>
+        <v>1024</v>
       </c>
       <c r="B709">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1060</v>
+        <v>1025</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -10239,7 +10111,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1061</v>
+        <v>1026</v>
       </c>
       <c r="B711">
         <v>2</v>
@@ -10247,31 +10119,31 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1062</v>
+        <v>1027</v>
       </c>
       <c r="B712">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1063</v>
+        <v>1028</v>
       </c>
       <c r="B713">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1064</v>
+        <v>1029</v>
       </c>
       <c r="B714">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1065</v>
+        <v>1030</v>
       </c>
       <c r="B715">
         <v>1</v>
@@ -10279,15 +10151,15 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1066</v>
+        <v>1031</v>
       </c>
       <c r="B716">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1067</v>
+        <v>1032</v>
       </c>
       <c r="B717">
         <v>1</v>
@@ -10295,15 +10167,15 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1068</v>
+        <v>1033</v>
       </c>
       <c r="B718">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1069</v>
+        <v>1034</v>
       </c>
       <c r="B719">
         <v>3</v>
@@ -10311,15 +10183,15 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1070</v>
+        <v>1035</v>
       </c>
       <c r="B720">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1071</v>
+        <v>1036</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -10327,15 +10199,15 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1072</v>
+        <v>1037</v>
       </c>
       <c r="B722">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1073</v>
+        <v>1038</v>
       </c>
       <c r="B723">
         <v>1</v>
@@ -10343,15 +10215,15 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1074</v>
+        <v>1039</v>
       </c>
       <c r="B724">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1075</v>
+        <v>1040</v>
       </c>
       <c r="B725">
         <v>1</v>
@@ -10359,63 +10231,63 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1076</v>
+        <v>1041</v>
       </c>
       <c r="B726">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1077</v>
+        <v>1042</v>
       </c>
       <c r="B727">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1078</v>
+        <v>1043</v>
       </c>
       <c r="B728">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1079</v>
+        <v>1044</v>
       </c>
       <c r="B729">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1080</v>
+        <v>1045</v>
       </c>
       <c r="B730">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1081</v>
+        <v>1046</v>
       </c>
       <c r="B731">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1082</v>
+        <v>1047</v>
       </c>
       <c r="B732">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1083</v>
+        <v>1048</v>
       </c>
       <c r="B733">
         <v>4</v>
@@ -10423,23 +10295,23 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1084</v>
+        <v>1049</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1085</v>
+        <v>1050</v>
       </c>
       <c r="B735">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1086</v>
+        <v>1051</v>
       </c>
       <c r="B736">
         <v>1</v>
@@ -10447,23 +10319,23 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>1087</v>
+        <v>1052</v>
       </c>
       <c r="B737">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1088</v>
+        <v>1053</v>
       </c>
       <c r="B738">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B739">
         <v>4</v>
@@ -10471,15 +10343,15 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B740">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B741">
         <v>4</v>
@@ -10487,15 +10359,15 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="B742">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="B743">
         <v>1</v>
@@ -10503,23 +10375,23 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="B744">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B745">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="B746">
         <v>1</v>
@@ -10527,23 +10399,23 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="B747">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B748">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="B749">
         <v>1</v>
@@ -10551,7 +10423,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B750">
         <v>1</v>
@@ -10559,15 +10431,15 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B751">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B752">
         <v>4</v>
@@ -10575,15 +10447,15 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="B753">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B754">
         <v>1</v>
@@ -10591,103 +10463,103 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B755">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="B756">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="B757">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B758">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="B759">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="B760">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="B761">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="B762">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="B763">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="B764">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="B765">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="B766">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="B767">
         <v>4</v>
@@ -10695,47 +10567,47 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="B768">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="B769">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="B770">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="B771">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="B772">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="B773">
         <v>4</v>
@@ -10743,7 +10615,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="B774">
         <v>1</v>
@@ -10751,15 +10623,15 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="B775">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="B776">
         <v>1</v>
@@ -10767,7 +10639,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B777">
         <v>1</v>
@@ -10775,111 +10647,111 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="B778">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="B779">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="B780">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="B781">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="B782">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>1094</v>
+        <v>845</v>
       </c>
       <c r="B783">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B784">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B785">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="B786">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="B787">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B788">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="B789">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B790">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B791">
         <v>1</v>
@@ -10887,15 +10759,15 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B792">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B793">
         <v>4</v>
@@ -10903,23 +10775,23 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B794">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B795">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B796">
         <v>2</v>
@@ -10927,47 +10799,47 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="B797">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="B798">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B799">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="B800">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="B801">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B802">
         <v>1</v>
@@ -10975,7 +10847,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="B803">
         <v>4</v>
@@ -10983,39 +10855,39 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="B804">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B805">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="B806">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B807">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="B808">
         <v>1</v>
@@ -11023,39 +10895,39 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B809">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="B810">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="B811">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B812">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="B813">
         <v>1</v>
@@ -11063,63 +10935,63 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B814">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B815">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="B816">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="B817">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B818">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="B819">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B820">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="B821">
         <v>4</v>
@@ -11127,15 +10999,15 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B822">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B823">
         <v>4</v>
@@ -11143,111 +11015,111 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B824">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="B825">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B826">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B827">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B828">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B829">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="B830">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="B831">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B832">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="B833">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="B834">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B835">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="B836">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="B837">
         <v>4</v>
@@ -11255,7 +11127,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B838">
         <v>1</v>
@@ -11263,79 +11135,79 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="B839">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="B840">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="B841">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>900</v>
+        <v>1156</v>
       </c>
       <c r="B842">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="B843">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="B844">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="B845">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="B846">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="B847">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B848">
         <v>1</v>
@@ -11343,31 +11215,31 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="B849">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="B850">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="B851">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="B852">
         <v>4</v>
@@ -11375,15 +11247,15 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="B853">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="B854">
         <v>2</v>
@@ -11391,7 +11263,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="B855">
         <v>2</v>
@@ -11399,15 +11271,15 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="B856">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B857">
         <v>1</v>
@@ -11415,15 +11287,15 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="B858">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="B859">
         <v>2</v>
@@ -11431,23 +11303,23 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="B860">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="B861">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="B862">
         <v>4</v>
@@ -11455,7 +11327,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="B863">
         <v>4</v>
@@ -11463,135 +11335,135 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="B864">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="B865">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="B866">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="B867">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="B868">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="B869">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="B870">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="B871">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="B872">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="B873">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="B874">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="B875">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="B876">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="B877">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="B878">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="B879">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="B880">
         <v>4</v>
@@ -11599,31 +11471,31 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="B881">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="B882">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B883">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="B884">
         <v>1</v>
@@ -11631,15 +11503,15 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="B885">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="B886">
         <v>1</v>
@@ -11647,7 +11519,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>1197</v>
+        <v>1134</v>
       </c>
       <c r="B887">
         <v>4</v>
@@ -11655,7 +11527,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>1198</v>
+        <v>1135</v>
       </c>
       <c r="B888">
         <v>4</v>
@@ -11663,7 +11535,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>1199</v>
+        <v>1136</v>
       </c>
       <c r="B889">
         <v>4</v>
@@ -11671,7 +11543,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>1200</v>
+        <v>1137</v>
       </c>
       <c r="B890">
         <v>4</v>
@@ -11679,31 +11551,31 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>1201</v>
+        <v>1138</v>
       </c>
       <c r="B891">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>1202</v>
+        <v>1139</v>
       </c>
       <c r="B892">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>1203</v>
+        <v>1140</v>
       </c>
       <c r="B893">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>1204</v>
+        <v>1141</v>
       </c>
       <c r="B894">
         <v>2</v>
@@ -11711,63 +11583,63 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>1205</v>
+        <v>1142</v>
       </c>
       <c r="B895">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>1206</v>
+        <v>1143</v>
       </c>
       <c r="B896">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>1207</v>
+        <v>1144</v>
       </c>
       <c r="B897">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>1208</v>
+        <v>1145</v>
       </c>
       <c r="B898">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>1209</v>
+        <v>1146</v>
       </c>
       <c r="B899">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>1210</v>
+        <v>1147</v>
       </c>
       <c r="B900">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>1211</v>
+        <v>1148</v>
       </c>
       <c r="B901">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>1212</v>
+        <v>1149</v>
       </c>
       <c r="B902">
         <v>2</v>
@@ -11775,47 +11647,47 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>1213</v>
+        <v>1150</v>
       </c>
       <c r="B903">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>1214</v>
+        <v>1151</v>
       </c>
       <c r="B904">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>1215</v>
+        <v>1153</v>
       </c>
       <c r="B905">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>1216</v>
+        <v>1154</v>
       </c>
       <c r="B906">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>1217</v>
+        <v>1155</v>
       </c>
       <c r="B907">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>1218</v>
+        <v>1156</v>
       </c>
       <c r="B908">
         <v>2</v>
@@ -11823,39 +11695,39 @@
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>1219</v>
+        <v>1157</v>
       </c>
       <c r="B909">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>1220</v>
+        <v>1158</v>
       </c>
       <c r="B910">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>1221</v>
+        <v>1159</v>
       </c>
       <c r="B911">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>1222</v>
+        <v>1160</v>
       </c>
       <c r="B912">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>1223</v>
+        <v>1161</v>
       </c>
       <c r="B913">
         <v>2</v>
@@ -11863,15 +11735,15 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>1224</v>
+        <v>1162</v>
       </c>
       <c r="B914">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>1225</v>
+        <v>1163</v>
       </c>
       <c r="B915">
         <v>2</v>
@@ -11879,31 +11751,31 @@
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>1226</v>
+        <v>1164</v>
       </c>
       <c r="B916">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>1227</v>
+        <v>1165</v>
       </c>
       <c r="B917">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>1228</v>
+        <v>1166</v>
       </c>
       <c r="B918">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>1229</v>
+        <v>1167</v>
       </c>
       <c r="B919">
         <v>4</v>
@@ -11911,31 +11783,31 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>1230</v>
+        <v>1168</v>
       </c>
       <c r="B920">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>1231</v>
+        <v>1169</v>
       </c>
       <c r="B921">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>1232</v>
+        <v>1170</v>
       </c>
       <c r="B922">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>1233</v>
+        <v>1171</v>
       </c>
       <c r="B923">
         <v>1</v>
@@ -11943,39 +11815,39 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>1234</v>
+        <v>1172</v>
       </c>
       <c r="B924">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>1235</v>
+        <v>1173</v>
       </c>
       <c r="B925">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>1236</v>
+        <v>1174</v>
       </c>
       <c r="B926">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>1237</v>
+        <v>1175</v>
       </c>
       <c r="B927">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>1238</v>
+        <v>1176</v>
       </c>
       <c r="B928">
         <v>4</v>
@@ -11983,31 +11855,31 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>1239</v>
+        <v>1177</v>
       </c>
       <c r="B929">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>1240</v>
+        <v>1181</v>
       </c>
       <c r="B930">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>1241</v>
+        <v>1182</v>
       </c>
       <c r="B931">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>1242</v>
+        <v>1183</v>
       </c>
       <c r="B932">
         <v>4</v>
@@ -12015,39 +11887,39 @@
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>1243</v>
+        <v>1186</v>
       </c>
       <c r="B933">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>1244</v>
+        <v>1187</v>
       </c>
       <c r="B934">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>1245</v>
+        <v>1188</v>
       </c>
       <c r="B935">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>1246</v>
+        <v>1192</v>
       </c>
       <c r="B936">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>1247</v>
+        <v>1194</v>
       </c>
       <c r="B937">
         <v>4</v>
@@ -12055,66 +11927,178 @@
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>1248</v>
+        <v>1195</v>
       </c>
       <c r="B938">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>1249</v>
+        <v>1196</v>
       </c>
       <c r="B939">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>1250</v>
+        <v>1197</v>
       </c>
       <c r="B940">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>1251</v>
+        <v>1199</v>
       </c>
       <c r="B941">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>1252</v>
+        <v>1201</v>
       </c>
       <c r="B942">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>1253</v>
+        <v>1202</v>
       </c>
       <c r="B943">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>1254</v>
+        <v>1203</v>
       </c>
       <c r="B944">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>1255</v>
+        <v>1204</v>
       </c>
       <c r="B945">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B946">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B947">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B948">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B949">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B950">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B951">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B952">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B953">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B954">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B955">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B956">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B957">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B958">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B959">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -12659,7 +12643,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -12667,7 +12651,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -12675,7 +12659,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -12683,7 +12667,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -12691,7 +12675,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -12699,7 +12683,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -12707,7 +12691,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -12715,7 +12699,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -12723,7 +12707,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -12731,7 +12715,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -12739,7 +12723,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -12747,7 +12731,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -12755,7 +12739,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -12763,7 +12747,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -12771,7 +12755,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>609</v>
+        <v>574</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -12779,7 +12763,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -12787,7 +12771,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -12795,7 +12779,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -12803,7 +12787,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>613</v>
+        <v>578</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -12811,7 +12795,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -12819,7 +12803,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -12827,7 +12811,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>616</v>
+        <v>581</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -12835,7 +12819,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -12843,7 +12827,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -12851,7 +12835,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -12859,7 +12843,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>620</v>
+        <v>585</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -12867,7 +12851,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -12875,7 +12859,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>622</v>
+        <v>587</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -12883,7 +12867,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>623</v>
+        <v>588</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -12891,7 +12875,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>624</v>
+        <v>589</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -12899,7 +12883,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -12907,7 +12891,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12915,7 +12899,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>627</v>
+        <v>592</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12923,7 +12907,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>628</v>
+        <v>593</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12931,7 +12915,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>629</v>
+        <v>594</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -12939,7 +12923,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>630</v>
+        <v>595</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -12947,7 +12931,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>631</v>
+        <v>596</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -12955,7 +12939,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>632</v>
+        <v>597</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -12963,7 +12947,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12971,7 +12955,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>634</v>
+        <v>599</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -12979,7 +12963,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12987,7 +12971,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>636</v>
+        <v>601</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -12995,7 +12979,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13003,7 +12987,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -13011,7 +12995,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -13019,7 +13003,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>640</v>
+        <v>605</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -13027,7 +13011,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13035,7 +13019,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -13043,7 +13027,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -13051,7 +13035,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>644</v>
+        <v>609</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13059,7 +13043,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>645</v>
+        <v>610</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13067,7 +13051,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>646</v>
+        <v>611</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -13075,7 +13059,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>647</v>
+        <v>612</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13083,7 +13067,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>648</v>
+        <v>613</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13091,7 +13075,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -13099,7 +13083,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -13107,7 +13091,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>651</v>
+        <v>616</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -13115,7 +13099,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>652</v>
+        <v>617</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -13123,7 +13107,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>653</v>
+        <v>618</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -13131,7 +13115,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>654</v>
+        <v>619</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -13139,7 +13123,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -13147,7 +13131,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>656</v>
+        <v>621</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -13155,7 +13139,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>657</v>
+        <v>622</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -13163,7 +13147,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>658</v>
+        <v>623</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -13171,7 +13155,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>659</v>
+        <v>624</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -13179,7 +13163,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>660</v>
+        <v>625</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -13187,7 +13171,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>661</v>
+        <v>626</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -13195,7 +13179,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -13203,7 +13187,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -13211,7 +13195,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>664</v>
+        <v>629</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -13219,7 +13203,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -13227,7 +13211,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -13235,7 +13219,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -13243,7 +13227,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>668</v>
+        <v>633</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -13251,7 +13235,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>669</v>
+        <v>634</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -13259,7 +13243,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -13267,7 +13251,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -13275,7 +13259,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>672</v>
+        <v>637</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -13283,7 +13267,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>673</v>
+        <v>638</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -13291,7 +13275,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>674</v>
+        <v>639</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -13299,7 +13283,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>675</v>
+        <v>640</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -13307,7 +13291,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>676</v>
+        <v>641</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -13315,7 +13299,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>677</v>
+        <v>642</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -13323,7 +13307,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>678</v>
+        <v>643</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -13331,7 +13315,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>679</v>
+        <v>644</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -13339,7 +13323,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>680</v>
+        <v>645</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -13347,7 +13331,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -13355,7 +13339,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>682</v>
+        <v>647</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -13363,7 +13347,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>683</v>
+        <v>648</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -13371,7 +13355,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -13379,7 +13363,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -13387,7 +13371,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -13395,7 +13379,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -13403,7 +13387,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -13411,7 +13395,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -13419,7 +13403,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -13427,7 +13411,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>691</v>
+        <v>656</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -13435,7 +13419,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -13443,7 +13427,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -13451,7 +13435,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>694</v>
+        <v>659</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -13459,7 +13443,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -13467,7 +13451,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>696</v>
+        <v>661</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -13475,7 +13459,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>697</v>
+        <v>662</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -13483,7 +13467,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>698</v>
+        <v>663</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -13491,7 +13475,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>699</v>
+        <v>664</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -13499,7 +13483,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -13507,7 +13491,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>734</v>
+        <v>697</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -13515,7 +13499,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -13523,7 +13507,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -13531,7 +13515,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>737</v>
+        <v>700</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -13539,7 +13523,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>738</v>
+        <v>701</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -13547,7 +13531,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -13555,7 +13539,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>740</v>
+        <v>703</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -13563,7 +13547,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>741</v>
+        <v>704</v>
       </c>
       <c r="B179">
         <v>3</v>
@@ -13571,7 +13555,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>742</v>
+        <v>705</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -13579,7 +13563,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>743</v>
+        <v>706</v>
       </c>
       <c r="B181">
         <v>2</v>
@@ -13587,7 +13571,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -13595,7 +13579,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>745</v>
+        <v>708</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -13603,7 +13587,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>746</v>
+        <v>709</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -13611,7 +13595,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>747</v>
+        <v>710</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -13619,7 +13603,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>748</v>
+        <v>711</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -13627,7 +13611,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>749</v>
+        <v>712</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -13635,7 +13619,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>750</v>
+        <v>713</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -13643,7 +13627,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>751</v>
+        <v>714</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -13651,7 +13635,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>752</v>
+        <v>715</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -13659,7 +13643,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>875</v>
+        <v>820</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -13667,7 +13651,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>876</v>
+        <v>821</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -13675,7 +13659,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>877</v>
+        <v>822</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -13683,7 +13667,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>878</v>
+        <v>823</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -13691,7 +13675,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>879</v>
+        <v>824</v>
       </c>
       <c r="B195">
         <v>2</v>
@@ -13699,7 +13683,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="B196">
         <v>4</v>
@@ -13707,7 +13691,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>881</v>
+        <v>826</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -13715,7 +13699,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>882</v>
+        <v>827</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -13723,7 +13707,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>883</v>
+        <v>828</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -13731,7 +13715,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>738</v>
+        <v>701</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -13739,7 +13723,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>884</v>
+        <v>829</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -13747,7 +13731,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>885</v>
+        <v>830</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -13755,7 +13739,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>886</v>
+        <v>831</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -13763,7 +13747,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>887</v>
+        <v>832</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -13771,7 +13755,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>888</v>
+        <v>833</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -13779,7 +13763,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>889</v>
+        <v>834</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -13787,7 +13771,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>890</v>
+        <v>835</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -13795,7 +13779,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>891</v>
+        <v>836</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -13803,7 +13787,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>892</v>
+        <v>837</v>
       </c>
       <c r="B209">
         <v>4</v>
@@ -13811,7 +13795,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>893</v>
+        <v>838</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -13819,7 +13803,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>894</v>
+        <v>839</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -13827,7 +13811,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>895</v>
+        <v>840</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -13835,7 +13819,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>896</v>
+        <v>841</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -13843,7 +13827,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>897</v>
+        <v>842</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -13851,7 +13835,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -13859,7 +13843,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>898</v>
+        <v>843</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -13867,7 +13851,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>899</v>
+        <v>844</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -13875,7 +13859,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>900</v>
+        <v>845</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -13883,7 +13867,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>702</v>
+        <v>667</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -13891,7 +13875,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -13899,7 +13883,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>901</v>
+        <v>846</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -13907,7 +13891,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>902</v>
+        <v>847</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -13915,7 +13899,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>903</v>
+        <v>848</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -13923,7 +13907,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>904</v>
+        <v>849</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -13931,7 +13915,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>905</v>
+        <v>850</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -13939,7 +13923,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>906</v>
+        <v>851</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -13947,7 +13931,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>907</v>
+        <v>852</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -13955,7 +13939,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>908</v>
+        <v>853</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -13963,7 +13947,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>909</v>
+        <v>854</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -13971,7 +13955,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>910</v>
+        <v>855</v>
       </c>
       <c r="B230">
         <v>3</v>
@@ -13979,7 +13963,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>911</v>
+        <v>856</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -13987,7 +13971,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>912</v>
+        <v>857</v>
       </c>
       <c r="B232">
         <v>2</v>
@@ -13995,7 +13979,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>913</v>
+        <v>858</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -14003,7 +13987,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>914</v>
+        <v>859</v>
       </c>
       <c r="B234">
         <v>3</v>
@@ -14011,7 +13995,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>915</v>
+        <v>860</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -14019,7 +14003,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>916</v>
+        <v>861</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -14027,7 +14011,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>917</v>
+        <v>862</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -14035,7 +14019,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>918</v>
+        <v>863</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -14043,7 +14027,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>919</v>
+        <v>864</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -14051,7 +14035,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>920</v>
+        <v>865</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -14059,7 +14043,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -14067,7 +14051,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>921</v>
+        <v>866</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -14075,7 +14059,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>922</v>
+        <v>867</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -14083,7 +14067,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>923</v>
+        <v>868</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -14091,7 +14075,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>924</v>
+        <v>869</v>
       </c>
       <c r="B245">
         <v>3</v>
@@ -14099,7 +14083,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>925</v>
+        <v>870</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -14107,7 +14091,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>926</v>
+        <v>871</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -14115,7 +14099,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>927</v>
+        <v>872</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -14123,7 +14107,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>928</v>
+        <v>873</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -14131,7 +14115,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>929</v>
+        <v>874</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -14139,7 +14123,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>930</v>
+        <v>875</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -14147,7 +14131,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>717</v>
+        <v>681</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -14155,7 +14139,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>931</v>
+        <v>876</v>
       </c>
       <c r="B253">
         <v>3</v>
@@ -14163,7 +14147,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>932</v>
+        <v>877</v>
       </c>
       <c r="B254">
         <v>3</v>
@@ -14171,7 +14155,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>933</v>
+        <v>878</v>
       </c>
       <c r="B255">
         <v>4</v>
@@ -14179,7 +14163,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>934</v>
+        <v>879</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -14187,7 +14171,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>935</v>
+        <v>880</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -14195,7 +14179,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>936</v>
+        <v>881</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -14203,7 +14187,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>937</v>
+        <v>882</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -14211,12 +14195,12 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>938</v>
+        <v>883</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>939</v>
+        <v>884</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -14224,7 +14208,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>940</v>
+        <v>885</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -14232,7 +14216,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>941</v>
+        <v>886</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -14240,7 +14224,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>942</v>
+        <v>887</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -14248,7 +14232,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>943</v>
+        <v>888</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -14256,7 +14240,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -14264,7 +14248,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>945</v>
+        <v>890</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -14272,7 +14256,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>946</v>
+        <v>891</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -14280,7 +14264,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>947</v>
+        <v>892</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -14288,7 +14272,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>948</v>
+        <v>893</v>
       </c>
       <c r="B270">
         <v>4</v>
@@ -14296,7 +14280,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>949</v>
+        <v>894</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -14304,7 +14288,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>750</v>
+        <v>713</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -14312,7 +14296,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -14320,7 +14304,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>951</v>
+        <v>896</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -14328,7 +14312,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>952</v>
+        <v>897</v>
       </c>
       <c r="B275">
         <v>2</v>
@@ -14336,7 +14320,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>953</v>
+        <v>898</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -14344,7 +14328,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>954</v>
+        <v>899</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -14352,7 +14336,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>955</v>
+        <v>900</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -14360,7 +14344,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>956</v>
+        <v>901</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -14368,7 +14352,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>957</v>
+        <v>902</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -14376,7 +14360,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>958</v>
+        <v>903</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -14384,7 +14368,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>959</v>
+        <v>904</v>
       </c>
       <c r="B282">
         <v>3</v>
@@ -14392,7 +14376,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>960</v>
+        <v>905</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -14400,7 +14384,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>961</v>
+        <v>906</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -14408,7 +14392,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>962</v>
+        <v>907</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -14416,7 +14400,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>963</v>
+        <v>908</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -14424,7 +14408,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>964</v>
+        <v>909</v>
       </c>
       <c r="B287">
         <v>2</v>
@@ -14432,7 +14416,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>965</v>
+        <v>910</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -14440,7 +14424,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>966</v>
+        <v>911</v>
       </c>
       <c r="B289">
         <v>3</v>
@@ -14448,7 +14432,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>967</v>
+        <v>912</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -14456,7 +14440,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>723</v>
+        <v>686</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -14464,7 +14448,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>968</v>
+        <v>913</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -14472,7 +14456,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>719</v>
+        <v>682</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -14480,7 +14464,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>969</v>
+        <v>914</v>
       </c>
       <c r="B294">
         <v>2</v>
@@ -14488,7 +14472,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>970</v>
+        <v>915</v>
       </c>
       <c r="B295">
         <v>2</v>
@@ -14496,7 +14480,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>971</v>
+        <v>916</v>
       </c>
       <c r="B296">
         <v>3</v>
@@ -14504,7 +14488,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>709</v>
+        <v>674</v>
       </c>
       <c r="B297">
         <v>2</v>
@@ -14512,7 +14496,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>749</v>
+        <v>712</v>
       </c>
       <c r="B298">
         <v>4</v>
@@ -14520,7 +14504,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>972</v>
+        <v>917</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -14528,7 +14512,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>973</v>
+        <v>918</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -14536,7 +14520,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>730</v>
+        <v>693</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -14544,7 +14528,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>974</v>
+        <v>919</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -14552,7 +14536,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>975</v>
+        <v>920</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -14560,7 +14544,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>976</v>
+        <v>921</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -14568,7 +14552,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>701</v>
+        <v>666</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -14576,7 +14560,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>977</v>
+        <v>922</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -14584,7 +14568,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>978</v>
+        <v>923</v>
       </c>
       <c r="B307">
         <v>4</v>
@@ -14592,7 +14576,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="B308">
         <v>3</v>
@@ -14600,7 +14584,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>980</v>
+        <v>925</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -14608,7 +14592,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>981</v>
+        <v>926</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -14616,7 +14600,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -14624,7 +14608,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>983</v>
+        <v>928</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -14632,7 +14616,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>984</v>
+        <v>929</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -14640,7 +14624,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>985</v>
+        <v>930</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -14648,7 +14632,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>986</v>
+        <v>931</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -14656,7 +14640,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>752</v>
+        <v>715</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -14664,7 +14648,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>987</v>
+        <v>932</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -14672,7 +14656,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -14680,7 +14664,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -14688,7 +14672,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>745</v>
+        <v>708</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -14696,7 +14680,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>725</v>
+        <v>688</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -14704,7 +14688,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>990</v>
+        <v>935</v>
       </c>
       <c r="B322">
         <v>4</v>
@@ -14712,7 +14696,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -14720,7 +14704,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>729</v>
+        <v>692</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -14728,7 +14712,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>992</v>
+        <v>937</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -14736,7 +14720,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -14744,7 +14728,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>994</v>
+        <v>939</v>
       </c>
       <c r="B327">
         <v>3</v>
@@ -14752,7 +14736,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>995</v>
+        <v>940</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -14760,7 +14744,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>996</v>
+        <v>941</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -14768,7 +14752,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>997</v>
+        <v>942</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -14776,7 +14760,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>743</v>
+        <v>706</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -14784,7 +14768,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -14792,7 +14776,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>721</v>
+        <v>684</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -14800,7 +14784,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>998</v>
+        <v>943</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -14808,7 +14792,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -14816,7 +14800,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1000</v>
+        <v>945</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -14824,7 +14808,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1001</v>
+        <v>946</v>
       </c>
       <c r="B337">
         <v>2</v>
@@ -14832,7 +14816,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -14840,7 +14824,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1003</v>
+        <v>948</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -14848,7 +14832,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>706</v>
+        <v>671</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -14856,7 +14840,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1004</v>
+        <v>949</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -14864,7 +14848,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1005</v>
+        <v>950</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -14872,7 +14856,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1006</v>
+        <v>951</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -14880,7 +14864,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1007</v>
+        <v>952</v>
       </c>
       <c r="B344">
         <v>3</v>
@@ -14888,7 +14872,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1008</v>
+        <v>953</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -14896,7 +14880,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1009</v>
+        <v>954</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -14904,7 +14888,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1010</v>
+        <v>955</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -14912,7 +14896,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1011</v>
+        <v>956</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -14920,7 +14904,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1012</v>
+        <v>957</v>
       </c>
       <c r="B349">
         <v>3</v>
@@ -14928,7 +14912,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1013</v>
+        <v>958</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -14936,7 +14920,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1014</v>
+        <v>959</v>
       </c>
       <c r="B351">
         <v>2</v>
@@ -14944,7 +14928,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1015</v>
+        <v>960</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -14952,7 +14936,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1016</v>
+        <v>961</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -14960,7 +14944,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>708</v>
+        <v>673</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -14968,7 +14952,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1017</v>
+        <v>962</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -14976,7 +14960,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1018</v>
+        <v>963</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -14984,7 +14968,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1019</v>
+        <v>964</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -14992,7 +14976,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1020</v>
+        <v>965</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -15000,7 +14984,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1021</v>
+        <v>966</v>
       </c>
       <c r="B359">
         <v>3</v>
@@ -15008,7 +14992,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1022</v>
+        <v>967</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -15016,7 +15000,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1023</v>
+        <v>968</v>
       </c>
       <c r="B361">
         <v>2</v>
@@ -15024,7 +15008,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1024</v>
+        <v>969</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -15032,7 +15016,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -15040,7 +15024,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1025</v>
+        <v>970</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -15048,7 +15032,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1026</v>
+        <v>971</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -15056,7 +15040,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1027</v>
+        <v>972</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -15064,7 +15048,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1028</v>
+        <v>973</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -15072,7 +15056,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1029</v>
+        <v>974</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -15080,7 +15064,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1030</v>
+        <v>975</v>
       </c>
       <c r="B369">
         <v>3</v>
@@ -15088,7 +15072,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1031</v>
+        <v>976</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -15096,7 +15080,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1032</v>
+        <v>977</v>
       </c>
       <c r="B371">
         <v>4</v>
@@ -15104,7 +15088,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1033</v>
+        <v>978</v>
       </c>
       <c r="B372">
         <v>3</v>
@@ -15112,7 +15096,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -15120,7 +15104,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1034</v>
+        <v>979</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -15128,7 +15112,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1035</v>
+        <v>980</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -15136,7 +15120,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1036</v>
+        <v>981</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -15144,7 +15128,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1037</v>
+        <v>982</v>
       </c>
       <c r="B377">
         <v>3</v>
@@ -15152,7 +15136,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1038</v>
+        <v>983</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -15160,7 +15144,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="B379">
         <v>3</v>
@@ -15168,7 +15152,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
       <c r="B380">
         <v>4</v>
@@ -15176,7 +15160,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1040</v>
+        <v>985</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -15184,7 +15168,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1041</v>
+        <v>986</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -15192,7 +15176,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1042</v>
+        <v>987</v>
       </c>
       <c r="B383">
         <v>3</v>
@@ -15200,7 +15184,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1043</v>
+        <v>988</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -15208,7 +15192,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1044</v>
+        <v>989</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -15216,7 +15200,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1045</v>
+        <v>990</v>
       </c>
       <c r="B386">
         <v>2</v>
@@ -15224,7 +15208,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1046</v>
+        <v>991</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -15232,7 +15216,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1047</v>
+        <v>992</v>
       </c>
       <c r="B388">
         <v>2</v>
@@ -15240,7 +15224,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1048</v>
+        <v>993</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -15248,7 +15232,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1049</v>
+        <v>994</v>
       </c>
       <c r="B390">
         <v>0</v>
